--- a/3des/Autoavaliacao.xlsx
+++ b/3des/Autoavaliacao.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2405E10-26A2-4BFD-BD6B-6E46CBEC93A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Autoavaliação" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -271,7 +270,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -901,22 +900,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1025,15 +1013,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1049,64 +1094,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1420,14 +1407,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:L3"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,18 +1427,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="145.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="52" t="s">
+      <c r="B1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
       <c r="G1" s="43" t="s">
         <v>30</v>
       </c>
@@ -1464,37 +1451,37 @@
       <c r="J1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="49" t="s">
         <v>34</v>
       </c>
       <c r="L1" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="46" t="s">
         <v>36</v>
       </c>
       <c r="N1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="67" t="s">
+      <c r="O1" s="46" t="s">
         <v>38</v>
       </c>
       <c r="P1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="67" t="s">
+      <c r="Q1" s="46" t="s">
         <v>40</v>
       </c>
       <c r="R1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="67" t="s">
+      <c r="S1" s="46" t="s">
         <v>42</v>
       </c>
       <c r="T1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="67" t="s">
+      <c r="U1" s="46" t="s">
         <v>44</v>
       </c>
       <c r="V1" s="43" t="s">
@@ -1503,7 +1490,7 @@
       <c r="W1" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="67" t="s">
+      <c r="X1" s="46" t="s">
         <v>47</v>
       </c>
       <c r="Y1" s="43" t="s">
@@ -1512,13 +1499,13 @@
       <c r="Z1" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="67" t="s">
+      <c r="AA1" s="46" t="s">
         <v>50</v>
       </c>
       <c r="AB1" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" s="67" t="s">
+      <c r="AC1" s="46" t="s">
         <v>52</v>
       </c>
       <c r="AD1" s="43" t="s">
@@ -1529,8 +1516,8 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="50"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -1543,31 +1530,31 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="71"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="44"/>
-      <c r="M2" s="68"/>
+      <c r="M2" s="47"/>
       <c r="N2" s="44"/>
-      <c r="O2" s="68"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="44"/>
-      <c r="Q2" s="68"/>
+      <c r="Q2" s="47"/>
       <c r="R2" s="44"/>
-      <c r="S2" s="68"/>
+      <c r="S2" s="47"/>
       <c r="T2" s="44"/>
-      <c r="U2" s="68"/>
+      <c r="U2" s="47"/>
       <c r="V2" s="44"/>
       <c r="W2" s="44"/>
-      <c r="X2" s="68"/>
+      <c r="X2" s="47"/>
       <c r="Y2" s="44"/>
       <c r="Z2" s="44"/>
-      <c r="AA2" s="68"/>
+      <c r="AA2" s="47"/>
       <c r="AB2" s="44"/>
-      <c r="AC2" s="68"/>
+      <c r="AC2" s="47"/>
       <c r="AD2" s="44"/>
       <c r="AE2" s="44"/>
     </row>
     <row r="3" spans="1:31" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="4">
         <v>0</v>
       </c>
@@ -1584,31 +1571,31 @@
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
       <c r="J3" s="45"/>
-      <c r="K3" s="72"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="45"/>
-      <c r="M3" s="69"/>
+      <c r="M3" s="48"/>
       <c r="N3" s="45"/>
-      <c r="O3" s="69"/>
+      <c r="O3" s="48"/>
       <c r="P3" s="45"/>
-      <c r="Q3" s="69"/>
+      <c r="Q3" s="48"/>
       <c r="R3" s="45"/>
-      <c r="S3" s="69"/>
+      <c r="S3" s="48"/>
       <c r="T3" s="45"/>
-      <c r="U3" s="69"/>
+      <c r="U3" s="48"/>
       <c r="V3" s="45"/>
       <c r="W3" s="45"/>
-      <c r="X3" s="69"/>
+      <c r="X3" s="48"/>
       <c r="Y3" s="45"/>
       <c r="Z3" s="45"/>
-      <c r="AA3" s="69"/>
+      <c r="AA3" s="48"/>
       <c r="AB3" s="45"/>
-      <c r="AC3" s="69"/>
+      <c r="AC3" s="48"/>
       <c r="AD3" s="45"/>
       <c r="AE3" s="45"/>
     </row>
     <row r="4" spans="1:31" ht="165.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1698,28 +1685,40 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="61" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
       <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
       <c r="M5" s="9">
         <v>1</v>
       </c>
-      <c r="N5" s="9"/>
+      <c r="N5" s="9">
+        <v>1</v>
+      </c>
       <c r="O5" s="9">
         <v>1</v>
       </c>
@@ -1735,15 +1734,21 @@
       <c r="S5" s="9">
         <v>1</v>
       </c>
-      <c r="T5" s="9"/>
+      <c r="T5" s="9">
+        <v>1</v>
+      </c>
       <c r="U5" s="9">
         <v>1</v>
       </c>
       <c r="V5" s="9">
         <v>1</v>
       </c>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
+      <c r="W5" s="9">
+        <v>1</v>
+      </c>
+      <c r="X5" s="9">
+        <v>1</v>
+      </c>
       <c r="Y5" s="9">
         <v>1</v>
       </c>
@@ -1767,26 +1772,38 @@
       </c>
     </row>
     <row r="6" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1</v>
+      </c>
+      <c r="L6" s="12">
+        <v>1</v>
+      </c>
       <c r="M6" s="12">
         <v>1</v>
       </c>
-      <c r="N6" s="12"/>
+      <c r="N6" s="12">
+        <v>1</v>
+      </c>
       <c r="O6" s="12">
         <v>1</v>
       </c>
@@ -1802,15 +1819,21 @@
       <c r="S6" s="12">
         <v>1</v>
       </c>
-      <c r="T6" s="12"/>
+      <c r="T6" s="12">
+        <v>1</v>
+      </c>
       <c r="U6" s="12">
         <v>1</v>
       </c>
       <c r="V6" s="12">
         <v>1</v>
       </c>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
+      <c r="W6" s="12">
+        <v>1</v>
+      </c>
+      <c r="X6" s="12">
+        <v>1</v>
+      </c>
       <c r="Y6" s="12">
         <v>1</v>
       </c>
@@ -1834,26 +1857,38 @@
       </c>
     </row>
     <row r="7" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="J7" s="12">
+        <v>1</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1</v>
+      </c>
       <c r="M7" s="12">
         <v>1</v>
       </c>
-      <c r="N7" s="12"/>
+      <c r="N7" s="12">
+        <v>1</v>
+      </c>
       <c r="O7" s="12">
         <v>1</v>
       </c>
@@ -1869,15 +1904,21 @@
       <c r="S7" s="12">
         <v>1</v>
       </c>
-      <c r="T7" s="12"/>
+      <c r="T7" s="12">
+        <v>0</v>
+      </c>
       <c r="U7" s="12">
         <v>1</v>
       </c>
       <c r="V7" s="12">
         <v>1</v>
       </c>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
+      <c r="W7" s="12">
+        <v>1</v>
+      </c>
+      <c r="X7" s="12">
+        <v>1</v>
+      </c>
       <c r="Y7" s="12">
         <v>1</v>
       </c>
@@ -1901,26 +1942,38 @@
       </c>
     </row>
     <row r="8" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="J8" s="12">
+        <v>1</v>
+      </c>
+      <c r="K8" s="12">
+        <v>1</v>
+      </c>
+      <c r="L8" s="12">
+        <v>1</v>
+      </c>
       <c r="M8" s="12">
         <v>1</v>
       </c>
-      <c r="N8" s="12"/>
+      <c r="N8" s="12">
+        <v>1</v>
+      </c>
       <c r="O8" s="12">
         <v>1</v>
       </c>
@@ -1936,15 +1989,21 @@
       <c r="S8" s="12">
         <v>1</v>
       </c>
-      <c r="T8" s="12"/>
+      <c r="T8" s="12">
+        <v>1</v>
+      </c>
       <c r="U8" s="12">
         <v>1</v>
       </c>
       <c r="V8" s="12">
         <v>1</v>
       </c>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
+      <c r="W8" s="12">
+        <v>1</v>
+      </c>
+      <c r="X8" s="12">
+        <v>1</v>
+      </c>
       <c r="Y8" s="12">
         <v>1</v>
       </c>
@@ -1968,26 +2027,38 @@
       </c>
     </row>
     <row r="9" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1</v>
+      </c>
+      <c r="L9" s="12">
+        <v>1</v>
+      </c>
       <c r="M9" s="12">
         <v>1</v>
       </c>
-      <c r="N9" s="12"/>
+      <c r="N9" s="12">
+        <v>1</v>
+      </c>
       <c r="O9" s="12">
         <v>1</v>
       </c>
@@ -2003,15 +2074,21 @@
       <c r="S9" s="12">
         <v>1</v>
       </c>
-      <c r="T9" s="12"/>
+      <c r="T9" s="12">
+        <v>1</v>
+      </c>
       <c r="U9" s="12">
         <v>1</v>
       </c>
       <c r="V9" s="12">
         <v>1</v>
       </c>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
+      <c r="W9" s="12">
+        <v>1</v>
+      </c>
+      <c r="X9" s="12">
+        <v>1</v>
+      </c>
       <c r="Y9" s="12">
         <v>1</v>
       </c>
@@ -2035,26 +2112,38 @@
       </c>
     </row>
     <row r="10" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="J10" s="12">
+        <v>1</v>
+      </c>
+      <c r="K10" s="12">
+        <v>1</v>
+      </c>
+      <c r="L10" s="12">
+        <v>1</v>
+      </c>
       <c r="M10" s="12">
         <v>0</v>
       </c>
-      <c r="N10" s="12"/>
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
       <c r="O10" s="12">
         <v>1</v>
       </c>
@@ -2070,15 +2159,21 @@
       <c r="S10" s="12">
         <v>1</v>
       </c>
-      <c r="T10" s="12"/>
+      <c r="T10" s="12">
+        <v>1</v>
+      </c>
       <c r="U10" s="12">
         <v>1</v>
       </c>
       <c r="V10" s="12">
         <v>1</v>
       </c>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
+      <c r="W10" s="12">
+        <v>1</v>
+      </c>
+      <c r="X10" s="12">
+        <v>1</v>
+      </c>
       <c r="Y10" s="12">
         <v>0</v>
       </c>
@@ -2102,26 +2197,38 @@
       </c>
     </row>
     <row r="11" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="J11" s="12">
+        <v>1</v>
+      </c>
+      <c r="K11" s="12">
+        <v>1</v>
+      </c>
+      <c r="L11" s="12">
+        <v>1</v>
+      </c>
       <c r="M11" s="12">
         <v>1</v>
       </c>
-      <c r="N11" s="12"/>
+      <c r="N11" s="12">
+        <v>1</v>
+      </c>
       <c r="O11" s="12">
         <v>1</v>
       </c>
@@ -2137,15 +2244,21 @@
       <c r="S11" s="12">
         <v>0</v>
       </c>
-      <c r="T11" s="12"/>
+      <c r="T11" s="12">
+        <v>1</v>
+      </c>
       <c r="U11" s="12">
         <v>1</v>
       </c>
       <c r="V11" s="12">
         <v>1</v>
       </c>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
+      <c r="W11" s="12">
+        <v>0</v>
+      </c>
+      <c r="X11" s="12">
+        <v>1</v>
+      </c>
       <c r="Y11" s="12">
         <v>1</v>
       </c>
@@ -2169,28 +2282,40 @@
       </c>
     </row>
     <row r="12" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
       <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="J12" s="12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="12">
+        <v>1</v>
+      </c>
       <c r="M12" s="12">
         <v>1</v>
       </c>
-      <c r="N12" s="12"/>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
       <c r="O12" s="12">
         <v>1</v>
       </c>
@@ -2206,15 +2331,21 @@
       <c r="S12" s="12">
         <v>1</v>
       </c>
-      <c r="T12" s="12"/>
+      <c r="T12" s="12">
+        <v>1</v>
+      </c>
       <c r="U12" s="12">
         <v>1</v>
       </c>
       <c r="V12" s="12">
         <v>1</v>
       </c>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
+      <c r="W12" s="12">
+        <v>1</v>
+      </c>
+      <c r="X12" s="12">
+        <v>1</v>
+      </c>
       <c r="Y12" s="12">
         <v>1</v>
       </c>
@@ -2238,26 +2369,38 @@
       </c>
     </row>
     <row r="13" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
       <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="J13" s="12">
+        <v>1</v>
+      </c>
+      <c r="K13" s="12">
+        <v>1</v>
+      </c>
+      <c r="L13" s="12">
+        <v>1</v>
+      </c>
       <c r="M13" s="12">
         <v>1</v>
       </c>
-      <c r="N13" s="12"/>
+      <c r="N13" s="12">
+        <v>1</v>
+      </c>
       <c r="O13" s="12">
         <v>1</v>
       </c>
@@ -2273,15 +2416,21 @@
       <c r="S13" s="12">
         <v>1</v>
       </c>
-      <c r="T13" s="12"/>
+      <c r="T13" s="12">
+        <v>1</v>
+      </c>
       <c r="U13" s="12">
         <v>1</v>
       </c>
       <c r="V13" s="12">
         <v>1</v>
       </c>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
+      <c r="W13" s="12">
+        <v>1</v>
+      </c>
+      <c r="X13" s="12">
+        <v>1</v>
+      </c>
       <c r="Y13" s="12">
         <v>1</v>
       </c>
@@ -2305,26 +2454,38 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
       <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="J14" s="12">
+        <v>1</v>
+      </c>
+      <c r="K14" s="12">
+        <v>1</v>
+      </c>
+      <c r="L14" s="12">
+        <v>1</v>
+      </c>
       <c r="M14" s="12">
         <v>1</v>
       </c>
-      <c r="N14" s="12"/>
+      <c r="N14" s="12">
+        <v>1</v>
+      </c>
       <c r="O14" s="12">
         <v>1</v>
       </c>
@@ -2340,15 +2501,21 @@
       <c r="S14" s="12">
         <v>1</v>
       </c>
-      <c r="T14" s="12"/>
+      <c r="T14" s="12">
+        <v>1</v>
+      </c>
       <c r="U14" s="12">
         <v>1</v>
       </c>
       <c r="V14" s="12">
         <v>1</v>
       </c>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
+      <c r="W14" s="12">
+        <v>1</v>
+      </c>
+      <c r="X14" s="12">
+        <v>1</v>
+      </c>
       <c r="Y14" s="12">
         <v>1</v>
       </c>
@@ -2372,26 +2539,38 @@
       </c>
     </row>
     <row r="15" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="17">
+        <v>1</v>
+      </c>
+      <c r="H15" s="18">
+        <v>1</v>
+      </c>
       <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+      <c r="J15" s="18">
+        <v>1</v>
+      </c>
+      <c r="K15" s="18">
+        <v>1</v>
+      </c>
+      <c r="L15" s="18">
+        <v>1</v>
+      </c>
       <c r="M15" s="18">
         <v>1</v>
       </c>
-      <c r="N15" s="18"/>
+      <c r="N15" s="18">
+        <v>1</v>
+      </c>
       <c r="O15" s="18">
         <v>1</v>
       </c>
@@ -2407,15 +2586,21 @@
       <c r="S15" s="18">
         <v>1</v>
       </c>
-      <c r="T15" s="18"/>
+      <c r="T15" s="18">
+        <v>1</v>
+      </c>
       <c r="U15" s="18">
         <v>1</v>
       </c>
       <c r="V15" s="18">
         <v>1</v>
       </c>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
+      <c r="W15" s="18">
+        <v>1</v>
+      </c>
+      <c r="X15" s="18">
+        <v>1</v>
+      </c>
       <c r="Y15" s="18">
         <v>1</v>
       </c>
@@ -2439,21 +2624,21 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
       <c r="G16" s="8">
         <f>IF(11-SUM(G4:G15)&lt;=1,1,11-SUM(G4:G15))</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" ref="H16:AE16" si="0">IF(11-SUM(H4:H15)&lt;=1,1,11-SUM(H4:H15))</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I16" s="9">
         <f t="shared" si="0"/>
@@ -2461,15 +2646,15 @@
       </c>
       <c r="J16" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M16" s="9">
         <f t="shared" si="0"/>
@@ -2477,7 +2662,7 @@
       </c>
       <c r="N16" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="O16" s="9">
         <f t="shared" si="0"/>
@@ -2500,7 +2685,7 @@
       </c>
       <c r="T16" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="U16" s="9">
         <f t="shared" si="0"/>
@@ -2512,11 +2697,11 @@
       </c>
       <c r="W16" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="X16" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="9">
         <f t="shared" si="0"/>
@@ -2548,21 +2733,21 @@
       </c>
     </row>
     <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="39">
         <f>VLOOKUP(G16,$C$20:$D$30,2)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H17" s="14">
         <f t="shared" ref="H17:AE17" si="1">VLOOKUP(H16,$C$20:$D$30,2)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="14">
         <f t="shared" si="1"/>
@@ -2570,15 +2755,15 @@
       </c>
       <c r="J17" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="14">
         <f t="shared" si="1"/>
@@ -2586,7 +2771,7 @@
       </c>
       <c r="N17" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O17" s="14">
         <f t="shared" si="1"/>
@@ -2609,7 +2794,7 @@
       </c>
       <c r="T17" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U17" s="14">
         <f t="shared" si="1"/>
@@ -2621,11 +2806,11 @@
       </c>
       <c r="W17" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X17" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y17" s="14">
         <f t="shared" si="1"/>
@@ -2656,9 +2841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S18" s="73"/>
-    </row>
+    <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
         <v>15</v>
@@ -2670,7 +2853,6 @@
         <v>17</v>
       </c>
       <c r="K19" s="16"/>
-      <c r="S19" s="73"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
@@ -2804,6 +2986,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="K1:K3"/>
     <mergeCell ref="AD1:AD3"/>
     <mergeCell ref="AE1:AE3"/>
     <mergeCell ref="L1:L3"/>
@@ -2820,33 +3029,6 @@
     <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="AA1:AA3"/>
     <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2860,6 +3042,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CACFF25D61573B44BF33C026F42204B2" ma:contentTypeVersion="9" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="88d9f7fccd898c04a565f471baab47e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="17a68905-9562-4fb8-9501-49fe46e69773" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d48945f68c85a10f7959e499592c770e" ns2:_="">
     <xsd:import namespace="17a68905-9562-4fb8-9501-49fe46e69773"/>
@@ -3035,32 +3226,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{203BBAD8-AC8B-4CF6-AD46-337907BF2AAD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="17a68905-9562-4fb8-9501-49fe46e69773"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="17a68905-9562-4fb8-9501-49fe46e69773"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F067D0D1-6AFD-4E18-ADC2-7DC650A8DDBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91B0727A-44B1-4F0E-ADBB-3F21B9B162AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3076,12 +3266,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F067D0D1-6AFD-4E18-ADC2-7DC650A8DDBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/3des/Autoavaliacao.xlsx
+++ b/3des/Autoavaliacao.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2405E10-26A2-4BFD-BD6B-6E46CBEC93A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Autoavaliação" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -270,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,7 +397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -900,11 +901,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -998,6 +1010,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -1007,6 +1025,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -1025,75 +1106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1407,11 +1420,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B4"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,97 +1440,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="145.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="67" t="s">
+      <c r="B1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="41" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="U1" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="V1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="W1" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="44" t="s">
+      <c r="X1" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="41" t="s">
+      <c r="Y1" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="41" t="s">
+      <c r="Z1" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="44" t="s">
+      <c r="AA1" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AB1" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" s="44" t="s">
+      <c r="AC1" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="41" t="s">
+      <c r="AD1" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="AE1" s="41" t="s">
+      <c r="AE1" s="43" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="66"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -1523,35 +1539,35 @@
       <c r="F2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
     </row>
     <row r="3" spans="1:31" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="66"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="4">
         <v>0</v>
       </c>
@@ -1564,35 +1580,35 @@
       <c r="F3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
     </row>
     <row r="4" spans="1:31" ht="165.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="B4" s="70"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1682,425 +1698,755 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
       <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
+      <c r="O5" s="9">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1</v>
+      </c>
+      <c r="R5" s="9">
+        <v>1</v>
+      </c>
+      <c r="S5" s="9">
+        <v>1</v>
+      </c>
       <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
+      <c r="U5" s="9">
+        <v>1</v>
+      </c>
+      <c r="V5" s="9">
+        <v>1</v>
+      </c>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="10"/>
+      <c r="Y5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="11"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="M6" s="12">
+        <v>1</v>
+      </c>
       <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
+      <c r="O6" s="12">
+        <v>1</v>
+      </c>
+      <c r="P6" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>1</v>
+      </c>
+      <c r="R6" s="12">
+        <v>1</v>
+      </c>
+      <c r="S6" s="12">
+        <v>1</v>
+      </c>
       <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
+      <c r="U6" s="12">
+        <v>1</v>
+      </c>
+      <c r="V6" s="12">
+        <v>1</v>
+      </c>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="13"/>
+      <c r="Y6" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="11"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="M7" s="12">
+        <v>1</v>
+      </c>
       <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
+      <c r="O7" s="12">
+        <v>1</v>
+      </c>
+      <c r="P7" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>1</v>
+      </c>
+      <c r="R7" s="12">
+        <v>1</v>
+      </c>
+      <c r="S7" s="12">
+        <v>1</v>
+      </c>
       <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
+      <c r="U7" s="12">
+        <v>1</v>
+      </c>
+      <c r="V7" s="12">
+        <v>1</v>
+      </c>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="13"/>
+      <c r="Y7" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="11"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="M8" s="12">
+        <v>1</v>
+      </c>
       <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
+      <c r="O8" s="12">
+        <v>1</v>
+      </c>
+      <c r="P8" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>1</v>
+      </c>
+      <c r="R8" s="12">
+        <v>1</v>
+      </c>
+      <c r="S8" s="12">
+        <v>1</v>
+      </c>
       <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
+      <c r="U8" s="12">
+        <v>1</v>
+      </c>
+      <c r="V8" s="12">
+        <v>1</v>
+      </c>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="13"/>
+      <c r="Y8" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="M9" s="12">
+        <v>1</v>
+      </c>
       <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
+      <c r="O9" s="12">
+        <v>1</v>
+      </c>
+      <c r="P9" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>1</v>
+      </c>
+      <c r="R9" s="12">
+        <v>1</v>
+      </c>
+      <c r="S9" s="12">
+        <v>1</v>
+      </c>
       <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
+      <c r="U9" s="12">
+        <v>1</v>
+      </c>
+      <c r="V9" s="12">
+        <v>1</v>
+      </c>
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="13"/>
+      <c r="Y9" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="11"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
       <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
+      <c r="O10" s="12">
+        <v>1</v>
+      </c>
+      <c r="P10" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>0</v>
+      </c>
+      <c r="R10" s="12">
+        <v>1</v>
+      </c>
+      <c r="S10" s="12">
+        <v>1</v>
+      </c>
       <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
+      <c r="U10" s="12">
+        <v>1</v>
+      </c>
+      <c r="V10" s="12">
+        <v>1</v>
+      </c>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="13"/>
+      <c r="Y10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="11"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
+      <c r="M11" s="12">
+        <v>1</v>
+      </c>
       <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
+      <c r="O11" s="12">
+        <v>1</v>
+      </c>
+      <c r="P11" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>0</v>
+      </c>
+      <c r="R11" s="12">
+        <v>1</v>
+      </c>
+      <c r="S11" s="12">
+        <v>0</v>
+      </c>
       <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
+      <c r="U11" s="12">
+        <v>1</v>
+      </c>
+      <c r="V11" s="12">
+        <v>1</v>
+      </c>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="13"/>
+      <c r="Y11" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="63" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="11"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="M12" s="12">
+        <v>1</v>
+      </c>
       <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
+      <c r="O12" s="12">
+        <v>1</v>
+      </c>
+      <c r="P12" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>1</v>
+      </c>
+      <c r="R12" s="12">
+        <v>1</v>
+      </c>
+      <c r="S12" s="12">
+        <v>1</v>
+      </c>
       <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
+      <c r="U12" s="12">
+        <v>1</v>
+      </c>
+      <c r="V12" s="12">
+        <v>1</v>
+      </c>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="13"/>
+      <c r="Y12" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="11"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
+      <c r="M13" s="12">
+        <v>1</v>
+      </c>
       <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
+      <c r="O13" s="12">
+        <v>1</v>
+      </c>
+      <c r="P13" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>1</v>
+      </c>
+      <c r="R13" s="12">
+        <v>1</v>
+      </c>
+      <c r="S13" s="12">
+        <v>1</v>
+      </c>
       <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
+      <c r="U13" s="12">
+        <v>1</v>
+      </c>
+      <c r="V13" s="12">
+        <v>1</v>
+      </c>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="13"/>
+      <c r="Y13" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+      <c r="M14" s="12">
+        <v>1</v>
+      </c>
       <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
+      <c r="O14" s="12">
+        <v>1</v>
+      </c>
+      <c r="P14" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>1</v>
+      </c>
+      <c r="R14" s="12">
+        <v>1</v>
+      </c>
+      <c r="S14" s="12">
+        <v>1</v>
+      </c>
       <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
+      <c r="U14" s="12">
+        <v>1</v>
+      </c>
+      <c r="V14" s="12">
+        <v>1</v>
+      </c>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="13"/>
+      <c r="Y14" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:31" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="63"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="M15" s="18">
+        <v>1</v>
+      </c>
       <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
+      <c r="O15" s="18">
+        <v>1</v>
+      </c>
+      <c r="P15" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>1</v>
+      </c>
+      <c r="R15" s="18">
+        <v>1</v>
+      </c>
+      <c r="S15" s="18">
+        <v>1</v>
+      </c>
       <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
+      <c r="U15" s="18">
+        <v>1</v>
+      </c>
+      <c r="V15" s="18">
+        <v>1</v>
+      </c>
       <c r="W15" s="18"/>
       <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="19"/>
+      <c r="Y15" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="8">
         <f>IF(11-SUM(G4:G15)&lt;=1,1,11-SUM(G4:G15))</f>
         <v>11</v>
@@ -2127,7 +2473,7 @@
       </c>
       <c r="M16" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N16" s="9">
         <f t="shared" si="0"/>
@@ -2135,22 +2481,21 @@
       </c>
       <c r="O16" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="R16" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S16" s="9">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="T16" s="9">
@@ -2159,11 +2504,11 @@
       </c>
       <c r="U16" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="V16" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="W16" s="9">
         <f t="shared" si="0"/>
@@ -2175,42 +2520,42 @@
       </c>
       <c r="Y16" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="10">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
       <c r="G17" s="39">
         <f>VLOOKUP(G16,$C$20:$D$30,2)</f>
         <v>0</v>
@@ -2237,7 +2582,7 @@
       </c>
       <c r="M17" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="14">
         <f t="shared" si="1"/>
@@ -2245,23 +2590,22 @@
       </c>
       <c r="O17" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="R17" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S17" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T17" s="14">
         <f t="shared" si="1"/>
@@ -2269,11 +2613,11 @@
       </c>
       <c r="U17" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V17" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W17" s="14">
         <f t="shared" si="1"/>
@@ -2285,34 +2629,36 @@
       </c>
       <c r="Y17" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z17" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB17" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC17" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD17" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE17" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S18" s="73"/>
+    </row>
     <row r="19" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
         <v>15</v>
@@ -2324,6 +2670,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="16"/>
+      <c r="S19" s="73"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
@@ -2439,7 +2786,7 @@
       <c r="B30" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="42">
         <v>11</v>
       </c>
       <c r="D30" s="33">
@@ -2457,33 +2804,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="K1:K3"/>
     <mergeCell ref="AD1:AD3"/>
     <mergeCell ref="AE1:AE3"/>
     <mergeCell ref="L1:L3"/>
@@ -2500,6 +2820,33 @@
     <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="AA1:AA3"/>
     <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2507,12 +2854,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2692,15 +3036,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F067D0D1-6AFD-4E18-ADC2-7DC650A8DDBB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{203BBAD8-AC8B-4CF6-AD46-337907BF2AAD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="17a68905-9562-4fb8-9501-49fe46e69773"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2724,17 +3079,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{203BBAD8-AC8B-4CF6-AD46-337907BF2AAD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F067D0D1-6AFD-4E18-ADC2-7DC650A8DDBB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="17a68905-9562-4fb8-9501-49fe46e69773"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>